--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H2">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.47708822986691</v>
+        <v>2.211866666666667</v>
       </c>
       <c r="N2">
-        <v>1.47708822986691</v>
+        <v>6.6356</v>
       </c>
       <c r="O2">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="P2">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="Q2">
-        <v>43.12998627643041</v>
+        <v>70.58148151213334</v>
       </c>
       <c r="R2">
-        <v>43.12998627643041</v>
+        <v>635.2333336092</v>
       </c>
       <c r="S2">
-        <v>0.3270382367073576</v>
+        <v>0.279040138566203</v>
       </c>
       <c r="T2">
-        <v>0.3270382367073576</v>
+        <v>0.279040138566203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H3">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I3">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J3">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.09362309614941</v>
+        <v>2.385444666666666</v>
       </c>
       <c r="N3">
-        <v>1.09362309614941</v>
+        <v>7.156333999999999</v>
       </c>
       <c r="O3">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="P3">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="Q3">
-        <v>31.93306139387581</v>
+        <v>76.12041954241532</v>
       </c>
       <c r="R3">
-        <v>31.93306139387581</v>
+        <v>685.0837758817379</v>
       </c>
       <c r="S3">
-        <v>0.242136225687324</v>
+        <v>0.300938035895176</v>
       </c>
       <c r="T3">
-        <v>0.242136225687324</v>
+        <v>0.300938035895176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.1979107735191</v>
+        <v>11.420477</v>
       </c>
       <c r="H4">
-        <v>11.1979107735191</v>
+        <v>34.261431</v>
       </c>
       <c r="I4">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J4">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.47708822986691</v>
+        <v>2.211866666666667</v>
       </c>
       <c r="N4">
-        <v>1.47708822986691</v>
+        <v>6.6356</v>
       </c>
       <c r="O4">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="P4">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="Q4">
-        <v>16.54030220266493</v>
+        <v>25.26057239373334</v>
       </c>
       <c r="R4">
-        <v>16.54030220266493</v>
+        <v>227.3451515436</v>
       </c>
       <c r="S4">
-        <v>0.1254188033424539</v>
+        <v>0.09986633136621312</v>
       </c>
       <c r="T4">
-        <v>0.1254188033424539</v>
+        <v>0.09986633136621312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.1979107735191</v>
+        <v>11.420477</v>
       </c>
       <c r="H5">
-        <v>11.1979107735191</v>
+        <v>34.261431</v>
       </c>
       <c r="I5">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J5">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09362309614941</v>
+        <v>2.385444666666666</v>
       </c>
       <c r="N5">
-        <v>1.09362309614941</v>
+        <v>7.156333999999999</v>
       </c>
       <c r="O5">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="P5">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="Q5">
-        <v>12.24629385054079</v>
+        <v>27.24291595043933</v>
       </c>
       <c r="R5">
-        <v>12.24629385054079</v>
+        <v>245.186243553954</v>
       </c>
       <c r="S5">
-        <v>0.09285897568832907</v>
+        <v>0.1077034213351162</v>
       </c>
       <c r="T5">
-        <v>0.09285897568832907</v>
+        <v>0.1077034213351162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.371096004150272</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H6">
-        <v>0.371096004150272</v>
+        <v>2.050948</v>
       </c>
       <c r="I6">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J6">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.47708822986691</v>
+        <v>2.211866666666667</v>
       </c>
       <c r="N6">
-        <v>1.47708822986691</v>
+        <v>6.6356</v>
       </c>
       <c r="O6">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="P6">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="Q6">
-        <v>0.5481415398810087</v>
+        <v>1.512141172088889</v>
       </c>
       <c r="R6">
-        <v>0.5481415398810087</v>
+        <v>13.6092705488</v>
       </c>
       <c r="S6">
-        <v>0.004156348242723747</v>
+        <v>0.005978169813831537</v>
       </c>
       <c r="T6">
-        <v>0.004156348242723747</v>
+        <v>0.005978169813831537</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.371096004150272</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H7">
-        <v>0.371096004150272</v>
+        <v>2.050948</v>
       </c>
       <c r="I7">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J7">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.09362309614941</v>
+        <v>2.385444666666666</v>
       </c>
       <c r="N7">
-        <v>1.09362309614941</v>
+        <v>7.156333999999999</v>
       </c>
       <c r="O7">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="P7">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="Q7">
-        <v>0.4058391610274948</v>
+        <v>1.630807656070222</v>
       </c>
       <c r="R7">
-        <v>0.4058391610274948</v>
+        <v>14.677268904632</v>
       </c>
       <c r="S7">
-        <v>0.003077323576190344</v>
+        <v>0.006447311455858746</v>
       </c>
       <c r="T7">
-        <v>0.003077323576190344</v>
+        <v>0.006447311455858746</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.387740711516154</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H8">
-        <v>0.387740711516154</v>
+        <v>1.347404</v>
       </c>
       <c r="I8">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J8">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.47708822986691</v>
+        <v>2.211866666666667</v>
       </c>
       <c r="N8">
-        <v>1.47708822986691</v>
+        <v>6.6356</v>
       </c>
       <c r="O8">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="P8">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="Q8">
-        <v>0.5727272412207322</v>
+        <v>0.9934259980444445</v>
       </c>
       <c r="R8">
-        <v>0.5727272412207322</v>
+        <v>8.940833982400001</v>
       </c>
       <c r="S8">
-        <v>0.004342772239309871</v>
+        <v>0.003927456922279779</v>
       </c>
       <c r="T8">
-        <v>0.004342772239309871</v>
+        <v>0.003927456922279779</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.387740711516154</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H9">
-        <v>0.387740711516154</v>
+        <v>1.347404</v>
       </c>
       <c r="I9">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J9">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.09362309614941</v>
+        <v>2.385444666666666</v>
       </c>
       <c r="N9">
-        <v>1.09362309614941</v>
+        <v>7.156333999999999</v>
       </c>
       <c r="O9">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="P9">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="Q9">
-        <v>0.4240421974314715</v>
+        <v>1.071385895215111</v>
       </c>
       <c r="R9">
-        <v>0.4240421974314715</v>
+        <v>9.642473056936</v>
       </c>
       <c r="S9">
-        <v>0.003215350258835722</v>
+        <v>0.004235667235283341</v>
       </c>
       <c r="T9">
-        <v>0.003215350258835722</v>
+        <v>0.004235667235283341</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.616499757877066</v>
+        <v>0.6568320000000001</v>
       </c>
       <c r="H10">
-        <v>0.616499757877066</v>
+        <v>1.970496</v>
       </c>
       <c r="I10">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="J10">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.47708822986691</v>
+        <v>2.211866666666667</v>
       </c>
       <c r="N10">
-        <v>1.47708822986691</v>
+        <v>6.6356</v>
       </c>
       <c r="O10">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="P10">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="Q10">
-        <v>0.910624536076014</v>
+        <v>1.4528248064</v>
       </c>
       <c r="R10">
-        <v>0.910624536076014</v>
+        <v>13.0754232576</v>
       </c>
       <c r="S10">
-        <v>0.006904918556477754</v>
+        <v>0.005743665712380708</v>
       </c>
       <c r="T10">
-        <v>0.006904918556477754</v>
+        <v>0.005743665712380708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.616499757877066</v>
+        <v>0.6568320000000001</v>
       </c>
       <c r="H11">
-        <v>0.616499757877066</v>
+        <v>1.970496</v>
       </c>
       <c r="I11">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="J11">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.09362309614941</v>
+        <v>2.385444666666666</v>
       </c>
       <c r="N11">
-        <v>1.09362309614941</v>
+        <v>7.156333999999999</v>
       </c>
       <c r="O11">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="P11">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="Q11">
-        <v>0.6742183739848785</v>
+        <v>1.566836391296</v>
       </c>
       <c r="R11">
-        <v>0.6742183739848785</v>
+        <v>14.101527521664</v>
       </c>
       <c r="S11">
-        <v>0.005112340791636473</v>
+        <v>0.006194404458096371</v>
       </c>
       <c r="T11">
-        <v>0.005112340791636473</v>
+        <v>0.006194404458096371</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.52861740667934</v>
+        <v>9.899486</v>
       </c>
       <c r="H12">
-        <v>9.52861740667934</v>
+        <v>29.698458</v>
       </c>
       <c r="I12">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="J12">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.47708822986691</v>
+        <v>2.211866666666667</v>
       </c>
       <c r="N12">
-        <v>1.47708822986691</v>
+        <v>6.6356</v>
       </c>
       <c r="O12">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="P12">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="Q12">
-        <v>14.07460861831101</v>
+        <v>21.89634310053333</v>
       </c>
       <c r="R12">
-        <v>14.07460861831101</v>
+        <v>197.0670879048</v>
       </c>
       <c r="S12">
-        <v>0.1067223892763911</v>
+        <v>0.08656602953021905</v>
       </c>
       <c r="T12">
-        <v>0.1067223892763911</v>
+        <v>0.08656602953021905</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.52861740667934</v>
+        <v>9.899486</v>
       </c>
       <c r="H13">
-        <v>9.52861740667934</v>
+        <v>29.698458</v>
       </c>
       <c r="I13">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="J13">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.09362309614941</v>
+        <v>2.385444666666666</v>
       </c>
       <c r="N13">
-        <v>1.09362309614941</v>
+        <v>7.156333999999999</v>
       </c>
       <c r="O13">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="P13">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="Q13">
-        <v>10.42071607031582</v>
+        <v>23.61467608144133</v>
       </c>
       <c r="R13">
-        <v>10.42071607031582</v>
+        <v>212.532084732972</v>
       </c>
       <c r="S13">
-        <v>0.0790163156329705</v>
+        <v>0.09335936770934213</v>
       </c>
       <c r="T13">
-        <v>0.0790163156329705</v>
+        <v>0.09335936770934213</v>
       </c>
     </row>
   </sheetData>
